--- a/config_files/Horarios/Medibiofarma/Horacio Moreno.xlsx
+++ b/config_files/Horarios/Medibiofarma/Horacio Moreno.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1052" uniqueCount="470">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1046" uniqueCount="470">
   <si>
     <t>Calendario 2022</t>
   </si>
@@ -323,7 +323,8 @@
     <t>Medibiofarma</t>
   </si>
   <si>
-    <t>B66918053</t>
+    <t xml:space="preserve">B66918053
+</t>
   </si>
   <si>
     <t>31/1124914-33</t>
@@ -9416,21 +9417,20 @@
       </c>
     </row>
     <row r="46" ht="15.6" customHeight="true">
-      <c r="Z46" s="104" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="AA46" s="109" t="n">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="AB46" s="109" t="n">
-        <v>0.7083333333333334</v>
-      </c>
-      <c r="AC46" s="106" t="n">
-        <v>8.0</v>
-      </c>
+      <c r="Z46" s="104"/>
+      <c r="AA46" s="109"/>
+      <c r="AB46" s="109"/>
+      <c r="AC46" s="106"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="G1:M1"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="T3:V3"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="L13:N13"/>
+    <mergeCell ref="T13:V13"/>
     <mergeCell ref="AA40:AC40"/>
     <mergeCell ref="AA33:AC33"/>
     <mergeCell ref="AA34:AC34"/>
@@ -9440,13 +9440,6 @@
     <mergeCell ref="D32:F32"/>
     <mergeCell ref="L32:N32"/>
     <mergeCell ref="T32:V32"/>
-    <mergeCell ref="G1:M1"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="L3:N3"/>
-    <mergeCell ref="T3:V3"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="L13:N13"/>
-    <mergeCell ref="T13:V13"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/config_files/Horarios/Medibiofarma/Horacio Moreno.xlsx
+++ b/config_files/Horarios/Medibiofarma/Horacio Moreno.xlsx
@@ -4676,7 +4676,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="494">
+  <cellXfs count="500">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5813,6 +5813,24 @@
     </xf>
     <xf numFmtId="14" fontId="473" fillId="15" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
       <alignment horizontal="center"/>
@@ -11259,11 +11277,11 @@
       <c r="B18" s="115">
         <v>3</v>
       </c>
-      <c r="C18" s="387">
+      <c r="C18" s="498" t="n">
         <v>0.375</v>
       </c>
-      <c r="E18" s="387">
-        <v>0.54166666666666663</v>
+      <c r="E18" s="498" t="n">
+        <v>0.5416666666666666</v>
       </c>
       <c r="G18" s="113">
         <f>((E18-C18)*24)</f>
@@ -11274,11 +11292,11 @@
       <c r="B19" s="115">
         <v>4</v>
       </c>
-      <c r="C19" s="387">
+      <c r="C19" s="498" t="n">
         <v>0.375</v>
       </c>
-      <c r="E19" s="387">
-        <v>0.54166666666666663</v>
+      <c r="E19" s="498" t="n">
+        <v>0.5416666666666666</v>
       </c>
       <c r="G19" s="113">
         <f>((E19-C19)*24)</f>
@@ -11289,11 +11307,11 @@
       <c r="B20" s="115">
         <v>5</v>
       </c>
-      <c r="C20" s="387">
+      <c r="C20" s="498" t="n">
         <v>0.375</v>
       </c>
-      <c r="E20" s="387">
-        <v>0.54166666666666663</v>
+      <c r="E20" s="498" t="n">
+        <v>0.5416666666666666</v>
       </c>
       <c r="G20" s="113">
         <f>((E20-C20)*24)</f>
@@ -11314,11 +11332,11 @@
       <c r="B22" s="115">
         <v>7</v>
       </c>
-      <c r="C22" s="387">
+      <c r="C22" s="498" t="n">
         <v>0.375</v>
       </c>
-      <c r="E22" s="387">
-        <v>0.54166666666666663</v>
+      <c r="E22" s="498" t="n">
+        <v>0.5416666666666666</v>
       </c>
       <c r="G22" s="113">
         <f>((E22-C22)*24)</f>
@@ -11349,11 +11367,11 @@
       <c r="B25" s="115">
         <v>10</v>
       </c>
-      <c r="C25" s="387">
+      <c r="C25" s="498" t="n">
         <v>0.375</v>
       </c>
-      <c r="E25" s="387">
-        <v>0.54166666666666663</v>
+      <c r="E25" s="498" t="n">
+        <v>0.5416666666666666</v>
       </c>
       <c r="G25" s="113">
         <f>((E25-C25)*24)</f>
@@ -11364,11 +11382,11 @@
       <c r="B26" s="115">
         <v>11</v>
       </c>
-      <c r="C26" s="387">
+      <c r="C26" s="498" t="n">
         <v>0.375</v>
       </c>
-      <c r="E26" s="387">
-        <v>0.54166666666666663</v>
+      <c r="E26" s="498" t="n">
+        <v>0.5416666666666666</v>
       </c>
       <c r="G26" s="113">
         <f>((E26-C26)*24)</f>
@@ -11379,11 +11397,11 @@
       <c r="B27" s="115">
         <v>12</v>
       </c>
-      <c r="C27" s="387">
+      <c r="C27" s="498" t="n">
         <v>0.375</v>
       </c>
-      <c r="E27" s="387">
-        <v>0.54166666666666663</v>
+      <c r="E27" s="498" t="n">
+        <v>0.5416666666666666</v>
       </c>
       <c r="G27" s="113">
         <f>((E27-C27)*24)</f>
@@ -11394,11 +11412,11 @@
       <c r="B28" s="115">
         <v>13</v>
       </c>
-      <c r="C28" s="387">
+      <c r="C28" s="498" t="n">
         <v>0.375</v>
       </c>
-      <c r="E28" s="387">
-        <v>0.54166666666666663</v>
+      <c r="E28" s="498" t="n">
+        <v>0.5416666666666666</v>
       </c>
       <c r="G28" s="113">
         <f>((E28-C28)*24)</f>
@@ -11409,11 +11427,11 @@
       <c r="B29" s="115">
         <v>14</v>
       </c>
-      <c r="C29" s="387">
+      <c r="C29" s="498" t="n">
         <v>0.375</v>
       </c>
-      <c r="E29" s="387">
-        <v>0.54166666666666663</v>
+      <c r="E29" s="498" t="n">
+        <v>0.5416666666666666</v>
       </c>
       <c r="G29" s="113">
         <f>((E29-C29)*24)</f>
@@ -11444,11 +11462,11 @@
       <c r="B32" s="115">
         <v>17</v>
       </c>
-      <c r="C32" s="387">
+      <c r="C32" s="498" t="n">
         <v>0.375</v>
       </c>
-      <c r="E32" s="387">
-        <v>0.54166666666666663</v>
+      <c r="E32" s="498" t="n">
+        <v>0.5416666666666666</v>
       </c>
       <c r="G32" s="113">
         <f>((E32-C32)*24)</f>
@@ -11459,11 +11477,11 @@
       <c r="B33" s="115">
         <v>18</v>
       </c>
-      <c r="C33" s="387">
+      <c r="C33" s="498" t="n">
         <v>0.375</v>
       </c>
-      <c r="E33" s="387">
-        <v>0.54166666666666663</v>
+      <c r="E33" s="498" t="n">
+        <v>0.5416666666666666</v>
       </c>
       <c r="G33" s="113">
         <f>((E33-C33)*24)</f>
@@ -11474,11 +11492,11 @@
       <c r="B34" s="115">
         <v>19</v>
       </c>
-      <c r="C34" s="387">
+      <c r="C34" s="498" t="n">
         <v>0.375</v>
       </c>
-      <c r="E34" s="387">
-        <v>0.54166666666666663</v>
+      <c r="E34" s="498" t="n">
+        <v>0.5416666666666666</v>
       </c>
       <c r="G34" s="113">
         <f>((E34-C34)*24)</f>
@@ -11489,11 +11507,11 @@
       <c r="B35" s="115">
         <v>20</v>
       </c>
-      <c r="C35" s="387">
+      <c r="C35" s="498" t="n">
         <v>0.375</v>
       </c>
-      <c r="E35" s="387">
-        <v>0.54166666666666663</v>
+      <c r="E35" s="498" t="n">
+        <v>0.5416666666666666</v>
       </c>
       <c r="G35" s="113">
         <f>((E35-C35)*24)</f>
@@ -11504,11 +11522,11 @@
       <c r="B36" s="115">
         <v>21</v>
       </c>
-      <c r="C36" s="387">
+      <c r="C36" s="498" t="n">
         <v>0.375</v>
       </c>
-      <c r="E36" s="387">
-        <v>0.54166666666666663</v>
+      <c r="E36" s="498" t="n">
+        <v>0.5416666666666666</v>
       </c>
       <c r="G36" s="113">
         <f>((E36-C36)*24)</f>
@@ -11539,11 +11557,11 @@
       <c r="B39" s="115">
         <v>24</v>
       </c>
-      <c r="C39" s="387">
+      <c r="C39" s="498" t="n">
         <v>0.375</v>
       </c>
-      <c r="E39" s="387">
-        <v>0.54166666666666663</v>
+      <c r="E39" s="498" t="n">
+        <v>0.5416666666666666</v>
       </c>
       <c r="G39" s="113">
         <f>((E39-C39)*24)</f>
@@ -11554,11 +11572,11 @@
       <c r="B40" s="115">
         <v>25</v>
       </c>
-      <c r="C40" s="387">
+      <c r="C40" s="498" t="n">
         <v>0.375</v>
       </c>
-      <c r="E40" s="387">
-        <v>0.54166666666666663</v>
+      <c r="E40" s="498" t="n">
+        <v>0.5416666666666666</v>
       </c>
       <c r="G40" s="113">
         <f>((E40-C40)*24)</f>
@@ -11569,11 +11587,11 @@
       <c r="B41" s="115">
         <v>26</v>
       </c>
-      <c r="C41" s="387">
+      <c r="C41" s="498" t="n">
         <v>0.375</v>
       </c>
-      <c r="E41" s="387">
-        <v>0.54166666666666663</v>
+      <c r="E41" s="498" t="n">
+        <v>0.5416666666666666</v>
       </c>
       <c r="G41" s="113">
         <f>((E41-C41)*24)</f>
@@ -11584,11 +11602,11 @@
       <c r="B42" s="115">
         <v>27</v>
       </c>
-      <c r="C42" s="387">
+      <c r="C42" s="498" t="n">
         <v>0.375</v>
       </c>
-      <c r="E42" s="387">
-        <v>0.54166666666666663</v>
+      <c r="E42" s="498" t="n">
+        <v>0.5416666666666666</v>
       </c>
       <c r="G42" s="113">
         <f>((E42-C42)*24)</f>
@@ -11599,11 +11617,11 @@
       <c r="B43" s="115">
         <v>28</v>
       </c>
-      <c r="C43" s="387">
+      <c r="C43" s="498" t="n">
         <v>0.375</v>
       </c>
-      <c r="E43" s="387">
-        <v>0.54166666666666663</v>
+      <c r="E43" s="498" t="n">
+        <v>0.5416666666666666</v>
       </c>
       <c r="G43" s="113">
         <f>((E43-C43)*24)</f>
@@ -11634,11 +11652,11 @@
       <c r="B46" s="115">
         <v>31</v>
       </c>
-      <c r="C46" s="387">
+      <c r="C46" s="498" t="n">
         <v>0.375</v>
       </c>
-      <c r="E46" s="387">
-        <v>0.54166666666666663</v>
+      <c r="E46" s="498" t="n">
+        <v>0.5416666666666666</v>
       </c>
       <c r="G46" s="113">
         <f>((E46-C46)*24)</f>
@@ -11740,6 +11758,7 @@
       <c r="H62" s="397"/>
     </row>
   </sheetData>
+  <sheetProtection password="BCDB" sheet="true" scenarios="true" objects="true"/>
   <mergeCells count="7">
     <mergeCell ref="B58:H62"/>
     <mergeCell ref="B6:H6"/>
@@ -12417,6 +12436,7 @@
       <c r="H62" s="407"/>
     </row>
   </sheetData>
+  <sheetProtection password="BCDB" sheet="true" scenarios="true" objects="true"/>
   <mergeCells count="7">
     <mergeCell ref="F11:H11"/>
     <mergeCell ref="B58:H62"/>
@@ -13117,6 +13137,7 @@
       <c r="H62" s="413"/>
     </row>
   </sheetData>
+  <sheetProtection password="BCDB" sheet="true" scenarios="true" objects="true"/>
   <mergeCells count="7">
     <mergeCell ref="B58:H62"/>
     <mergeCell ref="B6:H6"/>
@@ -13305,8 +13326,12 @@
       <c r="B16" s="189">
         <v>1</v>
       </c>
-      <c r="C16" s="190"/>
-      <c r="E16" s="190"/>
+      <c r="C16" s="495" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E16" s="495" t="n">
+        <v>0.5416666666666666</v>
+      </c>
       <c r="G16" s="187">
         <f>((E16-C16)*24)</f>
         <v>0</v>
@@ -13336,8 +13361,12 @@
       <c r="B19" s="189">
         <v>4</v>
       </c>
-      <c r="C19" s="190"/>
-      <c r="E19" s="190"/>
+      <c r="C19" s="495" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E19" s="495" t="n">
+        <v>0.5416666666666666</v>
+      </c>
       <c r="G19" s="187">
         <f>((E19-C19)*24)</f>
         <v>0</v>
@@ -13347,8 +13376,12 @@
       <c r="B20" s="189">
         <v>5</v>
       </c>
-      <c r="C20" s="190"/>
-      <c r="E20" s="190"/>
+      <c r="C20" s="495" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E20" s="495" t="n">
+        <v>0.5416666666666666</v>
+      </c>
       <c r="G20" s="187">
         <f>((E20-C20)*24)</f>
         <v>0</v>
@@ -13358,8 +13391,12 @@
       <c r="B21" s="189">
         <v>6</v>
       </c>
-      <c r="C21" s="190"/>
-      <c r="E21" s="190"/>
+      <c r="C21" s="495" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E21" s="495" t="n">
+        <v>0.5416666666666666</v>
+      </c>
       <c r="G21" s="187">
         <f>((E21-C21)*24)</f>
         <v>0</v>
@@ -13369,8 +13406,12 @@
       <c r="B22" s="189">
         <v>7</v>
       </c>
-      <c r="C22" s="190"/>
-      <c r="E22" s="190"/>
+      <c r="C22" s="495" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E22" s="495" t="n">
+        <v>0.5416666666666666</v>
+      </c>
       <c r="G22" s="187">
         <f>((E22-C22)*24)</f>
         <v>0</v>
@@ -13380,8 +13421,12 @@
       <c r="B23" s="189">
         <v>8</v>
       </c>
-      <c r="C23" s="190"/>
-      <c r="E23" s="190"/>
+      <c r="C23" s="495" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E23" s="495" t="n">
+        <v>0.5416666666666666</v>
+      </c>
       <c r="G23" s="187">
         <f>((E23-C23)*24)</f>
         <v>0</v>
@@ -13411,8 +13456,12 @@
       <c r="B26" s="189">
         <v>11</v>
       </c>
-      <c r="C26" s="190"/>
-      <c r="E26" s="190"/>
+      <c r="C26" s="495" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E26" s="495" t="n">
+        <v>0.5416666666666666</v>
+      </c>
       <c r="G26" s="187">
         <f>((E26-C26)*24)</f>
         <v>0</v>
@@ -13422,8 +13471,12 @@
       <c r="B27" s="189">
         <v>12</v>
       </c>
-      <c r="C27" s="190"/>
-      <c r="E27" s="190"/>
+      <c r="C27" s="495" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E27" s="495" t="n">
+        <v>0.5416666666666666</v>
+      </c>
       <c r="G27" s="187">
         <f>((E27-C27)*24)</f>
         <v>0</v>
@@ -13433,8 +13486,12 @@
       <c r="B28" s="189">
         <v>13</v>
       </c>
-      <c r="C28" s="190"/>
-      <c r="E28" s="190"/>
+      <c r="C28" s="495" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E28" s="495" t="n">
+        <v>0.5416666666666666</v>
+      </c>
       <c r="G28" s="187">
         <f>((E28-C28)*24)</f>
         <v>0</v>
@@ -13494,8 +13551,12 @@
       <c r="B34" s="189">
         <v>19</v>
       </c>
-      <c r="C34" s="190"/>
-      <c r="E34" s="190"/>
+      <c r="C34" s="495" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E34" s="495" t="n">
+        <v>0.5416666666666666</v>
+      </c>
       <c r="G34" s="187">
         <f>((E34-C34)*24)</f>
         <v>0</v>
@@ -13505,8 +13566,12 @@
       <c r="B35" s="189">
         <v>20</v>
       </c>
-      <c r="C35" s="190"/>
-      <c r="E35" s="190"/>
+      <c r="C35" s="495" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E35" s="495" t="n">
+        <v>0.5416666666666666</v>
+      </c>
       <c r="G35" s="187">
         <f>((E35-C35)*24)</f>
         <v>0</v>
@@ -13516,8 +13581,12 @@
       <c r="B36" s="189">
         <v>21</v>
       </c>
-      <c r="C36" s="190"/>
-      <c r="E36" s="190"/>
+      <c r="C36" s="495" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E36" s="495" t="n">
+        <v>0.5416666666666666</v>
+      </c>
       <c r="G36" s="187">
         <f>((E36-C36)*24)</f>
         <v>0</v>
@@ -13527,8 +13596,12 @@
       <c r="B37" s="189">
         <v>22</v>
       </c>
-      <c r="C37" s="190"/>
-      <c r="E37" s="190"/>
+      <c r="C37" s="495" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E37" s="495" t="n">
+        <v>0.5416666666666666</v>
+      </c>
       <c r="G37" s="187">
         <f>((E37-C37)*24)</f>
         <v>0</v>
@@ -13558,8 +13631,12 @@
       <c r="B40" s="189">
         <v>25</v>
       </c>
-      <c r="C40" s="190"/>
-      <c r="E40" s="190"/>
+      <c r="C40" s="495" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E40" s="495" t="n">
+        <v>0.5416666666666666</v>
+      </c>
       <c r="G40" s="187">
         <f>((E40-C40)*24)</f>
         <v>0</v>
@@ -13569,8 +13646,12 @@
       <c r="B41" s="189">
         <v>26</v>
       </c>
-      <c r="C41" s="190"/>
-      <c r="E41" s="190"/>
+      <c r="C41" s="495" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E41" s="495" t="n">
+        <v>0.5416666666666666</v>
+      </c>
       <c r="G41" s="187">
         <f>((E41-C41)*24)</f>
         <v>0</v>
@@ -13580,8 +13661,12 @@
       <c r="B42" s="189">
         <v>27</v>
       </c>
-      <c r="C42" s="190"/>
-      <c r="E42" s="190"/>
+      <c r="C42" s="495" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E42" s="495" t="n">
+        <v>0.5416666666666666</v>
+      </c>
       <c r="G42" s="187">
         <f>((E42-C42)*24)</f>
         <v>0</v>
@@ -13591,8 +13676,12 @@
       <c r="B43" s="189">
         <v>28</v>
       </c>
-      <c r="C43" s="190"/>
-      <c r="E43" s="190"/>
+      <c r="C43" s="495" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E43" s="495" t="n">
+        <v>0.5416666666666666</v>
+      </c>
       <c r="G43" s="187">
         <f>((E43-C43)*24)</f>
         <v>0</v>
@@ -13602,8 +13691,12 @@
       <c r="B44" s="189">
         <v>29</v>
       </c>
-      <c r="C44" s="190"/>
-      <c r="E44" s="190"/>
+      <c r="C44" s="495" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E44" s="495" t="n">
+        <v>0.5416666666666666</v>
+      </c>
       <c r="G44" s="187">
         <f>((E44-C44)*24)</f>
         <v>0</v>
@@ -13713,6 +13806,7 @@
       <c r="H62" s="421"/>
     </row>
   </sheetData>
+  <sheetProtection password="BCDB" sheet="true" scenarios="true" objects="true"/>
   <mergeCells count="7">
     <mergeCell ref="B58:H62"/>
     <mergeCell ref="B6:H6"/>
@@ -13911,8 +14005,12 @@
       <c r="B17" s="214">
         <v>2</v>
       </c>
-      <c r="C17" s="215"/>
-      <c r="E17" s="215"/>
+      <c r="C17" s="496" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E17" s="496" t="n">
+        <v>0.5416666666666666</v>
+      </c>
       <c r="G17" s="212">
         <f>((E17-C17)*24)</f>
         <v>0</v>
@@ -13922,8 +14020,12 @@
       <c r="B18" s="214">
         <v>3</v>
       </c>
-      <c r="C18" s="215"/>
-      <c r="E18" s="215"/>
+      <c r="C18" s="496" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E18" s="496" t="n">
+        <v>0.5416666666666666</v>
+      </c>
       <c r="G18" s="212">
         <f>((E18-C18)*24)</f>
         <v>0</v>
@@ -13933,8 +14035,12 @@
       <c r="B19" s="214">
         <v>4</v>
       </c>
-      <c r="C19" s="215"/>
-      <c r="E19" s="215"/>
+      <c r="C19" s="496" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E19" s="496" t="n">
+        <v>0.5416666666666666</v>
+      </c>
       <c r="G19" s="212">
         <f>((E19-C19)*24)</f>
         <v>0</v>
@@ -13944,8 +14050,12 @@
       <c r="B20" s="214">
         <v>5</v>
       </c>
-      <c r="C20" s="215"/>
-      <c r="E20" s="215"/>
+      <c r="C20" s="496" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E20" s="496" t="n">
+        <v>0.5416666666666666</v>
+      </c>
       <c r="G20" s="212">
         <f>((E20-C20)*24)</f>
         <v>0</v>
@@ -13955,8 +14065,12 @@
       <c r="B21" s="214">
         <v>6</v>
       </c>
-      <c r="C21" s="215"/>
-      <c r="E21" s="215"/>
+      <c r="C21" s="496" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E21" s="496" t="n">
+        <v>0.5416666666666666</v>
+      </c>
       <c r="G21" s="212">
         <f>((E21-C21)*24)</f>
         <v>0</v>
@@ -13986,8 +14100,12 @@
       <c r="B24" s="214">
         <v>9</v>
       </c>
-      <c r="C24" s="215"/>
-      <c r="E24" s="215"/>
+      <c r="C24" s="496" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E24" s="496" t="n">
+        <v>0.5416666666666666</v>
+      </c>
       <c r="G24" s="212">
         <f>((E24-C24)*24)</f>
         <v>0</v>
@@ -13997,8 +14115,12 @@
       <c r="B25" s="214">
         <v>10</v>
       </c>
-      <c r="C25" s="215"/>
-      <c r="E25" s="215"/>
+      <c r="C25" s="496" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E25" s="496" t="n">
+        <v>0.5416666666666666</v>
+      </c>
       <c r="G25" s="212">
         <f>((E25-C25)*24)</f>
         <v>0</v>
@@ -14008,8 +14130,12 @@
       <c r="B26" s="214">
         <v>11</v>
       </c>
-      <c r="C26" s="215"/>
-      <c r="E26" s="215"/>
+      <c r="C26" s="496" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E26" s="496" t="n">
+        <v>0.5416666666666666</v>
+      </c>
       <c r="G26" s="212">
         <f>((E26-C26)*24)</f>
         <v>0</v>
@@ -14019,8 +14145,12 @@
       <c r="B27" s="214">
         <v>12</v>
       </c>
-      <c r="C27" s="215"/>
-      <c r="E27" s="215"/>
+      <c r="C27" s="496" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E27" s="496" t="n">
+        <v>0.5416666666666666</v>
+      </c>
       <c r="G27" s="212">
         <f>((E27-C27)*24)</f>
         <v>0</v>
@@ -14030,8 +14160,12 @@
       <c r="B28" s="214">
         <v>13</v>
       </c>
-      <c r="C28" s="215"/>
-      <c r="E28" s="215"/>
+      <c r="C28" s="496" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E28" s="496" t="n">
+        <v>0.5416666666666666</v>
+      </c>
       <c r="G28" s="212">
         <f>((E28-C28)*24)</f>
         <v>0</v>
@@ -14061,8 +14195,12 @@
       <c r="B31" s="214">
         <v>16</v>
       </c>
-      <c r="C31" s="215"/>
-      <c r="E31" s="215"/>
+      <c r="C31" s="496" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E31" s="496" t="n">
+        <v>0.5416666666666666</v>
+      </c>
       <c r="G31" s="212">
         <f>((E31-C31)*24)</f>
         <v>0</v>
@@ -14072,8 +14210,12 @@
       <c r="B32" s="214">
         <v>17</v>
       </c>
-      <c r="C32" s="215"/>
-      <c r="E32" s="215"/>
+      <c r="C32" s="496" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E32" s="496" t="n">
+        <v>0.5416666666666666</v>
+      </c>
       <c r="G32" s="212">
         <f>((E32-C32)*24)</f>
         <v>0</v>
@@ -14083,8 +14225,12 @@
       <c r="B33" s="214">
         <v>18</v>
       </c>
-      <c r="C33" s="215"/>
-      <c r="E33" s="215"/>
+      <c r="C33" s="496" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E33" s="496" t="n">
+        <v>0.5416666666666666</v>
+      </c>
       <c r="G33" s="212">
         <f>((E33-C33)*24)</f>
         <v>0</v>
@@ -14094,8 +14240,12 @@
       <c r="B34" s="214">
         <v>19</v>
       </c>
-      <c r="C34" s="215"/>
-      <c r="E34" s="215"/>
+      <c r="C34" s="496" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E34" s="496" t="n">
+        <v>0.5416666666666666</v>
+      </c>
       <c r="G34" s="212">
         <f>((E34-C34)*24)</f>
         <v>0</v>
@@ -14105,8 +14255,12 @@
       <c r="B35" s="214">
         <v>20</v>
       </c>
-      <c r="C35" s="215"/>
-      <c r="E35" s="215"/>
+      <c r="C35" s="496" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E35" s="496" t="n">
+        <v>0.5416666666666666</v>
+      </c>
       <c r="G35" s="212">
         <f>((E35-C35)*24)</f>
         <v>0</v>
@@ -14136,8 +14290,12 @@
       <c r="B38" s="214">
         <v>23</v>
       </c>
-      <c r="C38" s="215"/>
-      <c r="E38" s="215"/>
+      <c r="C38" s="496" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E38" s="496" t="n">
+        <v>0.5416666666666666</v>
+      </c>
       <c r="G38" s="212">
         <f>((E38-C38)*24)</f>
         <v>0</v>
@@ -14147,8 +14305,12 @@
       <c r="B39" s="214">
         <v>24</v>
       </c>
-      <c r="C39" s="215"/>
-      <c r="E39" s="215"/>
+      <c r="C39" s="496" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E39" s="496" t="n">
+        <v>0.5416666666666666</v>
+      </c>
       <c r="G39" s="212">
         <f>((E39-C39)*24)</f>
         <v>0</v>
@@ -14158,8 +14320,12 @@
       <c r="B40" s="214">
         <v>25</v>
       </c>
-      <c r="C40" s="215"/>
-      <c r="E40" s="215"/>
+      <c r="C40" s="496" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E40" s="496" t="n">
+        <v>0.5416666666666666</v>
+      </c>
       <c r="G40" s="212">
         <f>((E40-C40)*24)</f>
         <v>0</v>
@@ -14169,8 +14335,12 @@
       <c r="B41" s="214">
         <v>26</v>
       </c>
-      <c r="C41" s="215"/>
-      <c r="E41" s="215"/>
+      <c r="C41" s="496" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E41" s="496" t="n">
+        <v>0.5416666666666666</v>
+      </c>
       <c r="G41" s="212">
         <f>((E41-C41)*24)</f>
         <v>0</v>
@@ -14180,8 +14350,12 @@
       <c r="B42" s="214">
         <v>27</v>
       </c>
-      <c r="C42" s="215"/>
-      <c r="E42" s="215"/>
+      <c r="C42" s="496" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E42" s="496" t="n">
+        <v>0.5416666666666666</v>
+      </c>
       <c r="G42" s="212">
         <f>((E42-C42)*24)</f>
         <v>0</v>
@@ -14211,8 +14385,12 @@
       <c r="B45" s="214">
         <v>30</v>
       </c>
-      <c r="C45" s="215"/>
-      <c r="E45" s="215"/>
+      <c r="C45" s="496" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E45" s="496" t="n">
+        <v>0.5416666666666666</v>
+      </c>
       <c r="G45" s="212">
         <f>((E45-C45)*24)</f>
         <v>0</v>
@@ -14222,8 +14400,12 @@
       <c r="B46" s="214">
         <v>31</v>
       </c>
-      <c r="C46" s="215"/>
-      <c r="E46" s="215"/>
+      <c r="C46" s="496" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E46" s="496" t="n">
+        <v>0.5416666666666666</v>
+      </c>
       <c r="G46" s="212">
         <f>((E46-C46)*24)</f>
         <v>0</v>
@@ -14318,6 +14500,7 @@
       <c r="H62" s="429"/>
     </row>
   </sheetData>
+  <sheetProtection password="BCDB" sheet="true" scenarios="true" objects="true"/>
   <mergeCells count="7">
     <mergeCell ref="B58:H62"/>
     <mergeCell ref="B6:H6"/>
@@ -14496,8 +14679,12 @@
       <c r="B16" s="238">
         <v>1</v>
       </c>
-      <c r="C16" s="239"/>
-      <c r="E16" s="239"/>
+      <c r="C16" s="499" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E16" s="499" t="n">
+        <v>0.5416666666666666</v>
+      </c>
       <c r="G16" s="236">
         <f>((E16-C16)*24)</f>
         <v>0</v>
@@ -14507,8 +14694,12 @@
       <c r="B17" s="238">
         <v>2</v>
       </c>
-      <c r="C17" s="239"/>
-      <c r="E17" s="239"/>
+      <c r="C17" s="499" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E17" s="499" t="n">
+        <v>0.5416666666666666</v>
+      </c>
       <c r="G17" s="236">
         <f>((E17-C17)*24)</f>
         <v>0</v>
@@ -14518,8 +14709,12 @@
       <c r="B18" s="238">
         <v>3</v>
       </c>
-      <c r="C18" s="239"/>
-      <c r="E18" s="239"/>
+      <c r="C18" s="499" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E18" s="499" t="n">
+        <v>0.5416666666666666</v>
+      </c>
       <c r="G18" s="236">
         <f>((E18-C18)*24)</f>
         <v>0</v>
@@ -14549,8 +14744,12 @@
       <c r="B21" s="238">
         <v>6</v>
       </c>
-      <c r="C21" s="239"/>
-      <c r="E21" s="239"/>
+      <c r="C21" s="499" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E21" s="499" t="n">
+        <v>0.5416666666666666</v>
+      </c>
       <c r="G21" s="236">
         <f>((E21-C21)*24)</f>
         <v>0</v>
@@ -14560,8 +14759,12 @@
       <c r="B22" s="238">
         <v>7</v>
       </c>
-      <c r="C22" s="239"/>
-      <c r="E22" s="239"/>
+      <c r="C22" s="499" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E22" s="499" t="n">
+        <v>0.5416666666666666</v>
+      </c>
       <c r="G22" s="236">
         <f>((E22-C22)*24)</f>
         <v>0</v>
@@ -14571,8 +14774,12 @@
       <c r="B23" s="238">
         <v>8</v>
       </c>
-      <c r="C23" s="239"/>
-      <c r="E23" s="239"/>
+      <c r="C23" s="499" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E23" s="499" t="n">
+        <v>0.5416666666666666</v>
+      </c>
       <c r="G23" s="236">
         <f>((E23-C23)*24)</f>
         <v>0</v>
@@ -14582,8 +14789,12 @@
       <c r="B24" s="238">
         <v>9</v>
       </c>
-      <c r="C24" s="239"/>
-      <c r="E24" s="239"/>
+      <c r="C24" s="499" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E24" s="499" t="n">
+        <v>0.5416666666666666</v>
+      </c>
       <c r="G24" s="236">
         <f>((E24-C24)*24)</f>
         <v>0</v>
@@ -14593,8 +14804,12 @@
       <c r="B25" s="238">
         <v>10</v>
       </c>
-      <c r="C25" s="239"/>
-      <c r="E25" s="239"/>
+      <c r="C25" s="499" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E25" s="499" t="n">
+        <v>0.5416666666666666</v>
+      </c>
       <c r="G25" s="236">
         <f>((E25-C25)*24)</f>
         <v>0</v>
@@ -14624,8 +14839,12 @@
       <c r="B28" s="238">
         <v>13</v>
       </c>
-      <c r="C28" s="239"/>
-      <c r="E28" s="239"/>
+      <c r="C28" s="499" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E28" s="499" t="n">
+        <v>0.5416666666666666</v>
+      </c>
       <c r="G28" s="236">
         <f>((E28-C28)*24)</f>
         <v>0</v>
@@ -14635,8 +14854,12 @@
       <c r="B29" s="238">
         <v>14</v>
       </c>
-      <c r="C29" s="239"/>
-      <c r="E29" s="239"/>
+      <c r="C29" s="499" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E29" s="499" t="n">
+        <v>0.5416666666666666</v>
+      </c>
       <c r="G29" s="236">
         <f>((E29-C29)*24)</f>
         <v>0</v>
@@ -14646,8 +14869,12 @@
       <c r="B30" s="238">
         <v>15</v>
       </c>
-      <c r="C30" s="239"/>
-      <c r="E30" s="239"/>
+      <c r="C30" s="499" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E30" s="499" t="n">
+        <v>0.5416666666666666</v>
+      </c>
       <c r="G30" s="236">
         <f>((E30-C30)*24)</f>
         <v>0</v>
@@ -14657,8 +14884,12 @@
       <c r="B31" s="238">
         <v>16</v>
       </c>
-      <c r="C31" s="239"/>
-      <c r="E31" s="239"/>
+      <c r="C31" s="499" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E31" s="499" t="n">
+        <v>0.5416666666666666</v>
+      </c>
       <c r="G31" s="236">
         <f>((E31-C31)*24)</f>
         <v>0</v>
@@ -14668,8 +14899,12 @@
       <c r="B32" s="238">
         <v>17</v>
       </c>
-      <c r="C32" s="239"/>
-      <c r="E32" s="239"/>
+      <c r="C32" s="499" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E32" s="499" t="n">
+        <v>0.5416666666666666</v>
+      </c>
       <c r="G32" s="236">
         <f>((E32-C32)*24)</f>
         <v>0</v>
@@ -14699,8 +14934,12 @@
       <c r="B35" s="238">
         <v>20</v>
       </c>
-      <c r="C35" s="239"/>
-      <c r="E35" s="239"/>
+      <c r="C35" s="499" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E35" s="499" t="n">
+        <v>0.5416666666666666</v>
+      </c>
       <c r="G35" s="236">
         <f>((E35-C35)*24)</f>
         <v>0</v>
@@ -14710,8 +14949,12 @@
       <c r="B36" s="238">
         <v>21</v>
       </c>
-      <c r="C36" s="239"/>
-      <c r="E36" s="239"/>
+      <c r="C36" s="499" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E36" s="499" t="n">
+        <v>0.5416666666666666</v>
+      </c>
       <c r="G36" s="236">
         <f>((E36-C36)*24)</f>
         <v>0</v>
@@ -14721,8 +14964,12 @@
       <c r="B37" s="238">
         <v>22</v>
       </c>
-      <c r="C37" s="239"/>
-      <c r="E37" s="239"/>
+      <c r="C37" s="499" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E37" s="499" t="n">
+        <v>0.5416666666666666</v>
+      </c>
       <c r="G37" s="236">
         <f>((E37-C37)*24)</f>
         <v>0</v>
@@ -14732,8 +14979,12 @@
       <c r="B38" s="238">
         <v>23</v>
       </c>
-      <c r="C38" s="239"/>
-      <c r="E38" s="239"/>
+      <c r="C38" s="499" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E38" s="499" t="n">
+        <v>0.5416666666666666</v>
+      </c>
       <c r="G38" s="236">
         <f>((E38-C38)*24)</f>
         <v>0</v>
@@ -14743,8 +14994,12 @@
       <c r="B39" s="238">
         <v>24</v>
       </c>
-      <c r="C39" s="239"/>
-      <c r="E39" s="239"/>
+      <c r="C39" s="499" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E39" s="499" t="n">
+        <v>0.5416666666666666</v>
+      </c>
       <c r="G39" s="236">
         <f>((E39-C39)*24)</f>
         <v>0</v>
@@ -14774,8 +15029,12 @@
       <c r="B42" s="238">
         <v>27</v>
       </c>
-      <c r="C42" s="239"/>
-      <c r="E42" s="239"/>
+      <c r="C42" s="499" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E42" s="499" t="n">
+        <v>0.5416666666666666</v>
+      </c>
       <c r="G42" s="236">
         <f>((E42-C42)*24)</f>
         <v>0</v>
@@ -14785,8 +15044,12 @@
       <c r="B43" s="238">
         <v>28</v>
       </c>
-      <c r="C43" s="239"/>
-      <c r="E43" s="239"/>
+      <c r="C43" s="499" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E43" s="499" t="n">
+        <v>0.5416666666666666</v>
+      </c>
       <c r="G43" s="236">
         <f>((E43-C43)*24)</f>
         <v>0</v>
@@ -14796,8 +15059,12 @@
       <c r="B44" s="238">
         <v>29</v>
       </c>
-      <c r="C44" s="239"/>
-      <c r="E44" s="239"/>
+      <c r="C44" s="499" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E44" s="499" t="n">
+        <v>0.5416666666666666</v>
+      </c>
       <c r="G44" s="236">
         <f>((E44-C44)*24)</f>
         <v>0</v>
@@ -14807,8 +15074,12 @@
       <c r="B45" s="238">
         <v>30</v>
       </c>
-      <c r="C45" s="239"/>
-      <c r="E45" s="239"/>
+      <c r="C45" s="499" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E45" s="499" t="n">
+        <v>0.5416666666666666</v>
+      </c>
       <c r="G45" s="236">
         <f>((E45-C45)*24)</f>
         <v>0</v>
@@ -14903,6 +15174,7 @@
       <c r="H62" s="437"/>
     </row>
   </sheetData>
+  <sheetProtection password="BCDB" sheet="true" scenarios="true" objects="true"/>
   <mergeCells count="7">
     <mergeCell ref="B58:H62"/>
     <mergeCell ref="B6:H6"/>

--- a/config_files/Horarios/Medibiofarma/Horacio Moreno.xlsx
+++ b/config_files/Horarios/Medibiofarma/Horacio Moreno.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="117">
   <si>
     <t>Calendario 2022</t>
   </si>
@@ -376,14 +376,17 @@
   <si>
     <t>Diciembre</t>
   </si>
+  <si>
+    <t>0</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="8">
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="176" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* \-??\ &quot;€&quot;_-;_-@_-"/>
     <numFmt numFmtId="177" formatCode="_-* #,##0\ &quot;€&quot;_-;\-* #,##0\ &quot;€&quot;_-;_-* &quot;-&quot;\ &quot;€&quot;_-;_-@_-"/>
     <numFmt numFmtId="178" formatCode="d"/>
@@ -1943,7 +1946,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="127">
+  <cellXfs count="133">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2258,6 +2261,12 @@
     </xf>
     <xf numFmtId="180" fontId="16" fillId="10" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -3102,16 +3111,16 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89090909090909" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="2.78181818181818" customWidth="1" collapsed="1"/>
-    <col min="2" max="8" width="6.78181818181818" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="2.78181818181818" customWidth="1" collapsed="1"/>
-    <col min="10" max="16" width="6.78181818181818" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="2.78181818181818" customWidth="1" collapsed="1"/>
-    <col min="18" max="24" width="6.78181818181818" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="10" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="5.78181818181818" customWidth="1" collapsed="1"/>
-    <col min="27" max="29" width="25" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="10" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="2.78181818181818" collapsed="true"/>
+    <col min="2" max="8" customWidth="true" width="6.78181818181818" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="2.78181818181818" collapsed="true"/>
+    <col min="10" max="16" customWidth="true" width="6.78181818181818" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="2.78181818181818" collapsed="true"/>
+    <col min="18" max="24" customWidth="true" width="6.78181818181818" collapsed="true"/>
+    <col min="25" max="25" customWidth="true" width="10.0" collapsed="true"/>
+    <col min="26" max="26" customWidth="true" width="5.78181818181818" collapsed="true"/>
+    <col min="27" max="29" customWidth="true" width="25.0" collapsed="true"/>
+    <col min="30" max="30" customWidth="true" width="10.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" ht="25.8" customHeight="1" spans="2:24">
@@ -5118,18 +5127,18 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89090909090909" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="10.8909090909091" customWidth="1"/>
-    <col min="2" max="2" width="18.6636363636364" customWidth="1"/>
-    <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="4" width="3.10909090909091" customWidth="1"/>
-    <col min="5" max="5" width="18.6636363636364" customWidth="1"/>
-    <col min="6" max="6" width="3.10909090909091" customWidth="1"/>
-    <col min="7" max="7" width="14.6636363636364" customWidth="1"/>
-    <col min="8" max="8" width="4.66363636363636" customWidth="1"/>
-    <col min="9" max="9" width="10.8909090909091" customWidth="1"/>
-    <col min="10" max="10" width="5.33636363636364" customWidth="1"/>
-    <col min="11" max="11" width="13.3363636363636" customWidth="1"/>
-    <col min="12" max="17" width="10.8909090909091" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="10.8909090909091" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.6636363636364" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.10909090909091" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.6636363636364" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.10909090909091" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.6636363636364" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.66363636363636" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.8909090909091" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.33636363636364" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.3363636363636" collapsed="true"/>
+    <col min="12" max="17" customWidth="true" width="10.8909090909091" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.4" customHeight="1" spans="10:11">
@@ -5702,18 +5711,18 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89090909090909" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="10.8909090909091" customWidth="1"/>
-    <col min="2" max="2" width="18.6636363636364" customWidth="1"/>
-    <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="4" width="3.10909090909091" customWidth="1"/>
-    <col min="5" max="5" width="18.6636363636364" customWidth="1"/>
-    <col min="6" max="6" width="3.10909090909091" customWidth="1"/>
-    <col min="7" max="7" width="14.6636363636364" customWidth="1"/>
-    <col min="8" max="8" width="4.66363636363636" customWidth="1"/>
-    <col min="9" max="9" width="10.8909090909091" customWidth="1"/>
-    <col min="10" max="10" width="5.33636363636364" customWidth="1"/>
-    <col min="11" max="11" width="13.3363636363636" customWidth="1"/>
-    <col min="12" max="17" width="10.8909090909091" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="10.8909090909091" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.6636363636364" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.10909090909091" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.6636363636364" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.10909090909091" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.6636363636364" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.66363636363636" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.8909090909091" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.33636363636364" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.3363636363636" collapsed="true"/>
+    <col min="12" max="17" customWidth="true" width="10.8909090909091" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.4" customHeight="1" spans="10:11">
@@ -6294,18 +6303,18 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89090909090909" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="10.8909090909091" customWidth="1"/>
-    <col min="2" max="2" width="18.6636363636364" customWidth="1"/>
-    <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="4" width="3.10909090909091" customWidth="1"/>
-    <col min="5" max="5" width="18.6636363636364" customWidth="1"/>
-    <col min="6" max="6" width="3.10909090909091" customWidth="1"/>
-    <col min="7" max="7" width="14.6636363636364" customWidth="1"/>
-    <col min="8" max="8" width="4.66363636363636" customWidth="1"/>
-    <col min="9" max="9" width="10.8909090909091" customWidth="1"/>
-    <col min="10" max="10" width="5.33636363636364" customWidth="1"/>
-    <col min="11" max="11" width="13.3363636363636" customWidth="1"/>
-    <col min="12" max="17" width="10.8909090909091" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="10.8909090909091" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.6636363636364" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.10909090909091" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.6636363636364" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.10909090909091" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.6636363636364" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.66363636363636" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.8909090909091" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.33636363636364" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.3363636363636" collapsed="true"/>
+    <col min="12" max="17" customWidth="true" width="10.8909090909091" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.4" customHeight="1" spans="10:11">
@@ -6876,18 +6885,18 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89090909090909" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="10.8909090909091" customWidth="1"/>
-    <col min="2" max="2" width="18.6636363636364" customWidth="1"/>
-    <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="4" width="3.10909090909091" customWidth="1"/>
-    <col min="5" max="5" width="18.6636363636364" customWidth="1"/>
-    <col min="6" max="6" width="3.10909090909091" customWidth="1"/>
-    <col min="7" max="7" width="14.6636363636364" customWidth="1"/>
-    <col min="8" max="8" width="4.66363636363636" customWidth="1"/>
-    <col min="9" max="9" width="10.8909090909091" customWidth="1"/>
-    <col min="10" max="10" width="5.33636363636364" customWidth="1"/>
-    <col min="11" max="11" width="13.3363636363636" customWidth="1"/>
-    <col min="12" max="17" width="10.8909090909091" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="10.8909090909091" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.6636363636364" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.10909090909091" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.6636363636364" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.10909090909091" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.6636363636364" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.66363636363636" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.8909090909091" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.33636363636364" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.3363636363636" collapsed="true"/>
+    <col min="12" max="17" customWidth="true" width="10.8909090909091" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.4" customHeight="1" spans="10:11">
@@ -7467,18 +7476,18 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89090909090909" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="10.8909090909091" customWidth="1"/>
-    <col min="2" max="2" width="18.6636363636364" customWidth="1"/>
-    <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="4" width="3.10909090909091" customWidth="1"/>
-    <col min="5" max="5" width="18.6636363636364" customWidth="1"/>
-    <col min="6" max="6" width="3.10909090909091" customWidth="1"/>
-    <col min="7" max="7" width="14.6636363636364" customWidth="1"/>
-    <col min="8" max="8" width="4.66363636363636" customWidth="1"/>
-    <col min="9" max="9" width="10.8909090909091" customWidth="1"/>
-    <col min="10" max="10" width="5.33636363636364" customWidth="1"/>
-    <col min="11" max="11" width="13.3363636363636" customWidth="1"/>
-    <col min="12" max="17" width="10.8909090909091" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="10.8909090909091" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.6636363636364" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.10909090909091" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.6636363636364" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.10909090909091" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.6636363636364" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.66363636363636" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.8909090909091" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.33636363636364" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.3363636363636" collapsed="true"/>
+    <col min="12" max="17" customWidth="true" width="10.8909090909091" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.4" customHeight="1" spans="10:14">
@@ -8162,18 +8171,18 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89090909090909" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="10.8909090909091" customWidth="1"/>
-    <col min="2" max="2" width="18.6636363636364" customWidth="1"/>
-    <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="4" width="3.10909090909091" customWidth="1"/>
-    <col min="5" max="5" width="18.6636363636364" customWidth="1"/>
-    <col min="6" max="6" width="3.10909090909091" customWidth="1"/>
-    <col min="7" max="7" width="14.6636363636364" customWidth="1"/>
-    <col min="8" max="8" width="4.66363636363636" customWidth="1"/>
-    <col min="9" max="9" width="10.8909090909091" customWidth="1"/>
-    <col min="10" max="10" width="5.33636363636364" customWidth="1"/>
-    <col min="11" max="11" width="13.3363636363636" customWidth="1"/>
-    <col min="12" max="17" width="10.8909090909091" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="10.8909090909091" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.6636363636364" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.10909090909091" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.6636363636364" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.10909090909091" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.6636363636364" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.66363636363636" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.8909090909091" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.33636363636364" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.3363636363636" collapsed="true"/>
+    <col min="12" max="17" customWidth="true" width="10.8909090909091" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.4" customHeight="1" spans="10:14">
@@ -8843,18 +8852,18 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89090909090909" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="10.8909090909091" customWidth="1"/>
-    <col min="2" max="2" width="18.6636363636364" customWidth="1"/>
-    <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="4" width="3.10909090909091" customWidth="1"/>
-    <col min="5" max="5" width="18.6636363636364" customWidth="1"/>
-    <col min="6" max="6" width="3.10909090909091" customWidth="1"/>
-    <col min="7" max="7" width="14.6636363636364" customWidth="1"/>
-    <col min="8" max="8" width="4.66363636363636" customWidth="1"/>
-    <col min="9" max="9" width="10.8909090909091" customWidth="1"/>
-    <col min="10" max="10" width="5.33636363636364" customWidth="1"/>
-    <col min="11" max="11" width="13.3363636363636" customWidth="1"/>
-    <col min="12" max="17" width="10.8909090909091" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="10.8909090909091" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.6636363636364" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.10909090909091" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.6636363636364" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.10909090909091" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.6636363636364" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.66363636363636" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.8909090909091" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.33636363636364" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.3363636363636" collapsed="true"/>
+    <col min="12" max="17" customWidth="true" width="10.8909090909091" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.4" customHeight="1" spans="10:14">
@@ -9546,18 +9555,18 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89090909090909" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="10.8909090909091" customWidth="1"/>
-    <col min="2" max="2" width="18.6636363636364" customWidth="1"/>
-    <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="4" width="3.10909090909091" customWidth="1"/>
-    <col min="5" max="5" width="18.6636363636364" customWidth="1"/>
-    <col min="6" max="6" width="3.10909090909091" customWidth="1"/>
-    <col min="7" max="7" width="14.6636363636364" customWidth="1"/>
-    <col min="8" max="8" width="4.66363636363636" customWidth="1"/>
-    <col min="9" max="9" width="10.8909090909091" customWidth="1"/>
-    <col min="10" max="10" width="5.33636363636364" customWidth="1"/>
-    <col min="11" max="11" width="13.3363636363636" customWidth="1"/>
-    <col min="12" max="17" width="10.8909090909091" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="10.8909090909091" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.6636363636364" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.10909090909091" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.6636363636364" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.10909090909091" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.6636363636364" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.66363636363636" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.8909090909091" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.33636363636364" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.3363636363636" collapsed="true"/>
+    <col min="12" max="17" customWidth="true" width="10.8909090909091" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.4" customHeight="1" spans="10:14">
@@ -10219,18 +10228,18 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89090909090909" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="10.8909090909091" customWidth="1"/>
-    <col min="2" max="2" width="18.6636363636364" customWidth="1"/>
-    <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="4" width="3.10909090909091" customWidth="1"/>
-    <col min="5" max="5" width="18.6636363636364" customWidth="1"/>
-    <col min="6" max="6" width="3.10909090909091" customWidth="1"/>
-    <col min="7" max="7" width="14.6636363636364" customWidth="1"/>
-    <col min="8" max="8" width="4.66363636363636" customWidth="1"/>
-    <col min="9" max="9" width="10.8909090909091" customWidth="1"/>
-    <col min="10" max="10" width="5.33636363636364" customWidth="1"/>
-    <col min="11" max="11" width="13.3363636363636" customWidth="1"/>
-    <col min="12" max="17" width="10.8909090909091" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="10.8909090909091" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.6636363636364" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.10909090909091" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.6636363636364" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.10909090909091" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.6636363636364" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.66363636363636" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.8909090909091" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.33636363636364" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.3363636363636" collapsed="true"/>
+    <col min="12" max="17" customWidth="true" width="10.8909090909091" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.4" customHeight="1" spans="10:14">
@@ -10917,18 +10926,18 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89090909090909" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="10.8909090909091" customWidth="1"/>
-    <col min="2" max="2" width="18.6636363636364" customWidth="1"/>
-    <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="4" width="3.10909090909091" customWidth="1"/>
-    <col min="5" max="5" width="18.6636363636364" customWidth="1"/>
-    <col min="6" max="6" width="3.10909090909091" customWidth="1"/>
-    <col min="7" max="7" width="14.6636363636364" customWidth="1"/>
-    <col min="8" max="8" width="4.66363636363636" customWidth="1"/>
-    <col min="9" max="9" width="10.8909090909091" customWidth="1"/>
-    <col min="10" max="10" width="5.33636363636364" customWidth="1"/>
-    <col min="11" max="11" width="13.3363636363636" customWidth="1"/>
-    <col min="12" max="17" width="10.8909090909091" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="10.8909090909091" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.6636363636364" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.10909090909091" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.6636363636364" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.10909090909091" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.6636363636364" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.66363636363636" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.8909090909091" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.33636363636364" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.3363636363636" collapsed="true"/>
+    <col min="12" max="17" customWidth="true" width="10.8909090909091" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.4" customHeight="1" spans="10:11">
@@ -11568,7 +11577,7 @@
       <c r="H62" s="32"/>
     </row>
   </sheetData>
-  <sheetProtection password="BCDB" sheet="1" objects="1"/>
+  <sheetProtection password="BCDB" sheet="true" objects="true" scenarios="true"/>
   <mergeCells count="7">
     <mergeCell ref="B6:H6"/>
     <mergeCell ref="J6:P6"/>
@@ -11595,18 +11604,18 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89090909090909" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="10.8909090909091" customWidth="1"/>
-    <col min="2" max="2" width="18.6636363636364" customWidth="1"/>
-    <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="4" width="3.10909090909091" customWidth="1"/>
-    <col min="5" max="5" width="18.6636363636364" customWidth="1"/>
-    <col min="6" max="6" width="3.10909090909091" customWidth="1"/>
-    <col min="7" max="7" width="14.6636363636364" customWidth="1"/>
-    <col min="8" max="8" width="4.66363636363636" customWidth="1"/>
-    <col min="9" max="9" width="10.8909090909091" customWidth="1"/>
-    <col min="10" max="10" width="5.33636363636364" customWidth="1"/>
-    <col min="11" max="11" width="13.3363636363636" customWidth="1"/>
-    <col min="12" max="17" width="10.8909090909091" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="10.8909090909091" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.6636363636364" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.10909090909091" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.6636363636364" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.10909090909091" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.6636363636364" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.66363636363636" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.8909090909091" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.33636363636364" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.3363636363636" collapsed="true"/>
+    <col min="12" max="17" customWidth="true" width="10.8909090909091" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.4" customHeight="1" spans="10:11">
@@ -11746,8 +11755,12 @@
       <c r="B16" s="12">
         <v>1</v>
       </c>
-      <c r="C16" s="13"/>
-      <c r="E16" s="13"/>
+      <c r="C16" s="132" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E16" s="132" t="n">
+        <v>0.5416666666666666</v>
+      </c>
       <c r="G16" s="11">
         <f t="shared" ref="G16:G23" si="0">IF((E16-C16)*24&lt;=4,(E16-C16)*24,(E16-C16)*24-1)</f>
         <v>0</v>
@@ -11777,8 +11790,12 @@
       <c r="B19" s="12">
         <v>4</v>
       </c>
-      <c r="C19" s="13"/>
-      <c r="E19" s="13"/>
+      <c r="C19" s="132" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E19" s="132" t="n">
+        <v>0.5416666666666666</v>
+      </c>
       <c r="G19" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -11788,8 +11805,12 @@
       <c r="B20" s="12">
         <v>5</v>
       </c>
-      <c r="C20" s="13"/>
-      <c r="E20" s="13"/>
+      <c r="C20" s="132" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E20" s="132" t="n">
+        <v>0.5416666666666666</v>
+      </c>
       <c r="G20" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -11799,8 +11820,12 @@
       <c r="B21" s="12">
         <v>6</v>
       </c>
-      <c r="C21" s="13"/>
-      <c r="E21" s="13"/>
+      <c r="C21" s="132" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E21" s="132" t="n">
+        <v>0.5416666666666666</v>
+      </c>
       <c r="G21" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -11810,8 +11835,12 @@
       <c r="B22" s="12">
         <v>7</v>
       </c>
-      <c r="C22" s="13"/>
-      <c r="E22" s="13"/>
+      <c r="C22" s="132" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E22" s="132" t="n">
+        <v>0.5416666666666666</v>
+      </c>
       <c r="G22" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -11821,8 +11850,12 @@
       <c r="B23" s="12">
         <v>8</v>
       </c>
-      <c r="C23" s="13"/>
-      <c r="E23" s="13"/>
+      <c r="C23" s="132" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E23" s="132" t="n">
+        <v>0.5416666666666666</v>
+      </c>
       <c r="G23" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -11852,8 +11885,12 @@
       <c r="B26" s="12">
         <v>11</v>
       </c>
-      <c r="C26" s="13"/>
-      <c r="E26" s="13"/>
+      <c r="C26" s="132" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E26" s="132" t="n">
+        <v>0.5416666666666666</v>
+      </c>
       <c r="G26" s="11">
         <f t="shared" ref="G26:G30" si="1">IF((E26-C26)*24&lt;=4,(E26-C26)*24,(E26-C26)*24-1)</f>
         <v>0</v>
@@ -11863,8 +11900,12 @@
       <c r="B27" s="12">
         <v>12</v>
       </c>
-      <c r="C27" s="13"/>
-      <c r="E27" s="13"/>
+      <c r="C27" s="132" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E27" s="132" t="n">
+        <v>0.5416666666666666</v>
+      </c>
       <c r="G27" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -11874,8 +11915,12 @@
       <c r="B28" s="12">
         <v>13</v>
       </c>
-      <c r="C28" s="13"/>
-      <c r="E28" s="13"/>
+      <c r="C28" s="132" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E28" s="132" t="n">
+        <v>0.5416666666666666</v>
+      </c>
       <c r="G28" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -11885,8 +11930,12 @@
       <c r="B29" s="12">
         <v>14</v>
       </c>
-      <c r="C29" s="13"/>
-      <c r="E29" s="13"/>
+      <c r="C29" s="132" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E29" s="132" t="n">
+        <v>0.5416666666666666</v>
+      </c>
       <c r="G29" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -11896,8 +11945,12 @@
       <c r="B30" s="12">
         <v>15</v>
       </c>
-      <c r="C30" s="13"/>
-      <c r="E30" s="13"/>
+      <c r="C30" s="132" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E30" s="132" t="n">
+        <v>0.5416666666666666</v>
+      </c>
       <c r="G30" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -11927,8 +11980,12 @@
       <c r="B33" s="12">
         <v>18</v>
       </c>
-      <c r="C33" s="13"/>
-      <c r="E33" s="13"/>
+      <c r="C33" s="132" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E33" s="132" t="n">
+        <v>0.5416666666666666</v>
+      </c>
       <c r="G33" s="11">
         <f t="shared" ref="G33:G37" si="2">IF((E33-C33)*24&lt;=4,(E33-C33)*24,(E33-C33)*24-1)</f>
         <v>0</v>
@@ -11938,8 +11995,12 @@
       <c r="B34" s="12">
         <v>19</v>
       </c>
-      <c r="C34" s="13"/>
-      <c r="E34" s="13"/>
+      <c r="C34" s="132" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E34" s="132" t="n">
+        <v>0.5416666666666666</v>
+      </c>
       <c r="G34" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -11949,8 +12010,12 @@
       <c r="B35" s="12">
         <v>20</v>
       </c>
-      <c r="C35" s="13"/>
-      <c r="E35" s="13"/>
+      <c r="C35" s="132" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E35" s="132" t="n">
+        <v>0.5416666666666666</v>
+      </c>
       <c r="G35" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -11960,8 +12025,12 @@
       <c r="B36" s="12">
         <v>21</v>
       </c>
-      <c r="C36" s="13"/>
-      <c r="E36" s="13"/>
+      <c r="C36" s="132" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E36" s="132" t="n">
+        <v>0.5416666666666666</v>
+      </c>
       <c r="G36" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -11971,8 +12040,12 @@
       <c r="B37" s="12">
         <v>22</v>
       </c>
-      <c r="C37" s="13"/>
-      <c r="E37" s="13"/>
+      <c r="C37" s="132" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E37" s="132" t="n">
+        <v>0.5416666666666666</v>
+      </c>
       <c r="G37" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -12012,8 +12085,12 @@
       <c r="B41" s="12">
         <v>26</v>
       </c>
-      <c r="C41" s="13"/>
-      <c r="E41" s="13"/>
+      <c r="C41" s="132" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E41" s="132" t="n">
+        <v>0.5416666666666666</v>
+      </c>
       <c r="G41" s="11">
         <f t="shared" ref="G41:G44" si="3">IF((E41-C41)*24&lt;=4,(E41-C41)*24,(E41-C41)*24-1)</f>
         <v>0</v>
@@ -12023,8 +12100,12 @@
       <c r="B42" s="12">
         <v>27</v>
       </c>
-      <c r="C42" s="13"/>
-      <c r="E42" s="13"/>
+      <c r="C42" s="132" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E42" s="132" t="n">
+        <v>0.5416666666666666</v>
+      </c>
       <c r="G42" s="11">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -12034,8 +12115,12 @@
       <c r="B43" s="12">
         <v>28</v>
       </c>
-      <c r="C43" s="13"/>
-      <c r="E43" s="13"/>
+      <c r="C43" s="132" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E43" s="132" t="n">
+        <v>0.5416666666666666</v>
+      </c>
       <c r="G43" s="11">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -12045,8 +12130,12 @@
       <c r="B44" s="12">
         <v>29</v>
       </c>
-      <c r="C44" s="13"/>
-      <c r="E44" s="13"/>
+      <c r="C44" s="132" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E44" s="132" t="n">
+        <v>0.5416666666666666</v>
+      </c>
       <c r="G44" s="11">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -12187,18 +12276,18 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89090909090909" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="10.8909090909091" customWidth="1"/>
-    <col min="2" max="2" width="18.6636363636364" customWidth="1"/>
-    <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="4" width="3.10909090909091" customWidth="1"/>
-    <col min="5" max="5" width="18.6636363636364" customWidth="1"/>
-    <col min="6" max="6" width="3.10909090909091" customWidth="1"/>
-    <col min="7" max="7" width="14.6636363636364" customWidth="1"/>
-    <col min="8" max="8" width="4.66363636363636" customWidth="1"/>
-    <col min="9" max="9" width="10.8909090909091" customWidth="1"/>
-    <col min="10" max="10" width="5.33636363636364" customWidth="1"/>
-    <col min="11" max="11" width="13.3363636363636" customWidth="1"/>
-    <col min="12" max="17" width="10.8909090909091" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="10.8909090909091" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.6636363636364" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.10909090909091" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.6636363636364" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.10909090909091" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.6636363636364" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.66363636363636" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.8909090909091" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.33636363636364" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.3363636363636" collapsed="true"/>
+    <col min="12" max="17" customWidth="true" width="10.8909090909091" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.4" customHeight="1" spans="10:11">
@@ -12360,33 +12449,42 @@
       <c r="B18" s="12">
         <v>3</v>
       </c>
-      <c r="C18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="G18" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="C18" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="G18" s="11" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="19" ht="14.4" customHeight="1" spans="2:7">
       <c r="B19" s="12">
         <v>4</v>
       </c>
-      <c r="C19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="G19" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="C19" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="E19" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="G19" s="11" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="20" ht="14.4" customHeight="1" spans="2:7">
       <c r="B20" s="12">
         <v>5</v>
       </c>
-      <c r="C20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="G20" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="C20" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="G20" s="11" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="21" ht="14.4" customHeight="1" spans="2:7">
@@ -12413,55 +12511,70 @@
       <c r="B23" s="12">
         <v>8</v>
       </c>
-      <c r="C23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="G23" s="11">
-        <f t="shared" ref="G23:G27" si="1">IF((E23-C23)*24&lt;=4,(E23-C23)*24,(E23-C23)*24-1)</f>
-        <v>0</v>
+      <c r="C23" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="E23" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="G23" s="11" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="24" ht="14.4" customHeight="1" spans="2:7">
       <c r="B24" s="12">
         <v>9</v>
       </c>
-      <c r="C24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="G24" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="C24" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="E24" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="G24" s="11" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="25" ht="14.4" customHeight="1" spans="2:7">
       <c r="B25" s="12">
         <v>10</v>
       </c>
-      <c r="C25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="G25" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="C25" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="E25" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="G25" s="11" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="26" ht="14.4" customHeight="1" spans="2:7">
       <c r="B26" s="12">
         <v>11</v>
       </c>
-      <c r="C26" s="13"/>
-      <c r="E26" s="13"/>
-      <c r="G26" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="C26" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="E26" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="G26" s="11" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="27" ht="14.4" customHeight="1" spans="2:7">
       <c r="B27" s="12">
         <v>12</v>
       </c>
-      <c r="C27" s="13"/>
-      <c r="E27" s="13"/>
-      <c r="G27" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="C27" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="E27" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="G27" s="11" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="28" ht="14.4" customHeight="1" spans="2:7">
@@ -12498,44 +12611,56 @@
       <c r="B31" s="12">
         <v>16</v>
       </c>
-      <c r="C31" s="13"/>
-      <c r="E31" s="13"/>
-      <c r="G31" s="11">
-        <f t="shared" ref="G31:G34" si="2">IF((E31-C31)*24&lt;=4,(E31-C31)*24,(E31-C31)*24-1)</f>
-        <v>0</v>
+      <c r="C31" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="E31" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="G31" s="11" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="32" ht="14.4" customHeight="1" spans="2:7">
       <c r="B32" s="12">
         <v>17</v>
       </c>
-      <c r="C32" s="13"/>
-      <c r="E32" s="13"/>
-      <c r="G32" s="11">
-        <f t="shared" si="2"/>
-        <v>0</v>
+      <c r="C32" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="E32" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="G32" s="11" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="33" ht="14.4" customHeight="1" spans="2:7">
       <c r="B33" s="12">
         <v>18</v>
       </c>
-      <c r="C33" s="13"/>
-      <c r="E33" s="13"/>
-      <c r="G33" s="11">
-        <f t="shared" si="2"/>
-        <v>0</v>
+      <c r="C33" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="E33" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="G33" s="11" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="34" ht="14.4" customHeight="1" spans="2:7">
       <c r="B34" s="12">
         <v>19</v>
       </c>
-      <c r="C34" s="13"/>
-      <c r="E34" s="13"/>
-      <c r="G34" s="11">
-        <f t="shared" si="2"/>
-        <v>0</v>
+      <c r="C34" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="E34" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="G34" s="11" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="35" ht="14.4" customHeight="1" spans="2:7">
@@ -12562,22 +12687,28 @@
       <c r="B37" s="12">
         <v>22</v>
       </c>
-      <c r="C37" s="13"/>
-      <c r="E37" s="13"/>
-      <c r="G37" s="11">
-        <f t="shared" ref="G37:G41" si="3">IF((E37-C37)*24&lt;=4,(E37-C37)*24,(E37-C37)*24-1)</f>
-        <v>0</v>
+      <c r="C37" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="E37" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="G37" s="11" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="38" ht="14.4" customHeight="1" spans="2:7">
       <c r="B38" s="12">
         <v>23</v>
       </c>
-      <c r="C38" s="13"/>
-      <c r="E38" s="13"/>
-      <c r="G38" s="11">
-        <f t="shared" si="3"/>
-        <v>0</v>
+      <c r="C38" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="E38" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="G38" s="11" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="39" ht="14.4" customHeight="1" spans="2:7">
@@ -12587,7 +12718,7 @@
       <c r="C39" s="13"/>
       <c r="E39" s="13"/>
       <c r="G39" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="3" ref="G39:G41">IF((E39-C39)*24&lt;=4,(E39-C39)*24,(E39-C39)*24-1)</f>
         <v>0</v>
       </c>
     </row>

--- a/config_files/Horarios/Medibiofarma/Horacio Moreno.xlsx
+++ b/config_files/Horarios/Medibiofarma/Horacio Moreno.xlsx
@@ -8144,7 +8144,7 @@
       <c r="H62" s="32"/>
     </row>
   </sheetData>
-  <sheetProtection password="BCDB" sheet="1" objects="1"/>
+  <sheetProtection password="BCDB" sheet="true" objects="true" scenarios="true"/>
   <mergeCells count="7">
     <mergeCell ref="B6:H6"/>
     <mergeCell ref="J6:P6"/>
@@ -12250,6 +12250,7 @@
       <c r="H62" s="32"/>
     </row>
   </sheetData>
+  <sheetProtection password="BCDB" sheet="true" scenarios="true" objects="true"/>
   <mergeCells count="7">
     <mergeCell ref="B6:H6"/>
     <mergeCell ref="J6:P6"/>
